--- a/Rheumatoid Arthritis/deg_GSE77298_RA.xlsx
+++ b/Rheumatoid Arthritis/deg_GSE77298_RA.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G287"/>
+  <dimension ref="A1:G286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4971,2574 +4971,2549 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.9691054532686056</v>
+        <v>1.988340096663149</v>
       </c>
       <c r="B185">
-        <v>7.155299633996662</v>
+        <v>7.940296775736838</v>
       </c>
       <c r="C185">
-        <v>4.420569685071067</v>
+        <v>4.418064830311908</v>
       </c>
       <c r="D185">
-        <v>0.0001573614879663761</v>
+        <v>0.0001584001554557132</v>
       </c>
       <c r="E185">
         <v>0.04199523329015514</v>
       </c>
       <c r="F185">
-        <v>0.9575139490447642</v>
+        <v>0.9516360016651273</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>WDR54</t>
+          <t>RRBP1</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>1.988340096663149</v>
+        <v>2.827471189345313</v>
       </c>
       <c r="B186">
-        <v>7.940296775736838</v>
+        <v>4.091534219786601</v>
       </c>
       <c r="C186">
-        <v>4.418064830311908</v>
+        <v>4.415774014385791</v>
       </c>
       <c r="D186">
-        <v>0.0001584001554557132</v>
+        <v>0.0001593560390692998</v>
       </c>
       <c r="E186">
         <v>0.04199523329015514</v>
       </c>
       <c r="F186">
-        <v>0.9516360016651273</v>
+        <v>0.9462604709957851</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>RRBP1</t>
+          <t>IL21R</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>2.827471189345313</v>
+        <v>1.739210394801038</v>
       </c>
       <c r="B187">
-        <v>4.091534219786601</v>
+        <v>4.401883053620164</v>
       </c>
       <c r="C187">
-        <v>4.415774014385791</v>
+        <v>4.410641080533017</v>
       </c>
       <c r="D187">
-        <v>0.0001593560390692998</v>
+        <v>0.000161518731366217</v>
       </c>
       <c r="E187">
         <v>0.04199523329015514</v>
       </c>
       <c r="F187">
-        <v>0.9462604709957851</v>
+        <v>0.9342162720143827</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>IL21R</t>
+          <t>CAPN15</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1.739210394801038</v>
+        <v>-2.726206911789616</v>
       </c>
       <c r="B188">
-        <v>4.401883053620164</v>
+        <v>6.671665621680598</v>
       </c>
       <c r="C188">
-        <v>4.410641080533017</v>
+        <v>-4.410471479938483</v>
       </c>
       <c r="D188">
-        <v>0.000161518731366217</v>
+        <v>0.000161590686399005</v>
       </c>
       <c r="E188">
         <v>0.04199523329015514</v>
       </c>
       <c r="F188">
-        <v>0.9342162720143827</v>
+        <v>0.9338183243609786</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>CAPN15</t>
+          <t>EYA4</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>-2.726206911789616</v>
+        <v>2.354542270705096</v>
       </c>
       <c r="B189">
-        <v>6.671665621680598</v>
+        <v>6.090711501420726</v>
       </c>
       <c r="C189">
-        <v>-4.410471479938483</v>
+        <v>4.410170480701666</v>
       </c>
       <c r="D189">
-        <v>0.000161590686399005</v>
+        <v>0.0001617184673601079</v>
       </c>
       <c r="E189">
         <v>0.04199523329015514</v>
       </c>
       <c r="F189">
-        <v>0.9338183243609786</v>
+        <v>0.9331120673912894</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>EYA4</t>
+          <t>SDC1</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>2.354542270705096</v>
+        <v>-5.27168646248734</v>
       </c>
       <c r="B190">
-        <v>6.090711501420726</v>
+        <v>3.847304993769821</v>
       </c>
       <c r="C190">
-        <v>4.410170480701666</v>
+        <v>-4.407062885308513</v>
       </c>
       <c r="D190">
-        <v>0.0001617184673601079</v>
+        <v>0.0001630436014443731</v>
       </c>
       <c r="E190">
         <v>0.04199523329015514</v>
       </c>
       <c r="F190">
-        <v>0.9331120673912894</v>
+        <v>0.9258206343833777</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>SDC1</t>
+          <t>TTN</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>-5.27168646248734</v>
+        <v>5.026492651456995</v>
       </c>
       <c r="B191">
-        <v>3.847304993769821</v>
+        <v>7.513660657292061</v>
       </c>
       <c r="C191">
-        <v>-4.407062885308513</v>
+        <v>4.405604949004744</v>
       </c>
       <c r="D191">
-        <v>0.0001630436014443731</v>
+        <v>0.0001636690080977797</v>
       </c>
       <c r="E191">
         <v>0.04199523329015514</v>
       </c>
       <c r="F191">
-        <v>0.9258206343833777</v>
+        <v>0.9223999350007226</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>TTN</t>
+          <t>IGKC</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>5.026492651456995</v>
+        <v>-1.49594059216594</v>
       </c>
       <c r="B192">
-        <v>7.513660657292061</v>
+        <v>8.650614539712883</v>
       </c>
       <c r="C192">
-        <v>4.405604949004744</v>
+        <v>-4.404493274125753</v>
       </c>
       <c r="D192">
-        <v>0.0001636690080977797</v>
+        <v>0.0001641474828172899</v>
       </c>
       <c r="E192">
         <v>0.04199523329015514</v>
       </c>
       <c r="F192">
-        <v>0.9223999350007226</v>
+        <v>0.9197916965287538</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>IGKC</t>
+          <t>PRKAB2</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>-1.49594059216594</v>
+        <v>1.081516614572827</v>
       </c>
       <c r="B193">
-        <v>8.650614539712883</v>
+        <v>6.070094341765232</v>
       </c>
       <c r="C193">
-        <v>-4.404493274125753</v>
+        <v>4.404047037100425</v>
       </c>
       <c r="D193">
-        <v>0.0001641474828172899</v>
+        <v>0.0001643399382732542</v>
       </c>
       <c r="E193">
         <v>0.04199523329015514</v>
       </c>
       <c r="F193">
-        <v>0.9197916965287538</v>
+        <v>0.9187447345024173</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>PRKAB2</t>
+          <t>TLE3</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>1.081516614572827</v>
+        <v>-4.878500473005098</v>
       </c>
       <c r="B194">
-        <v>6.070094341765232</v>
+        <v>7.55184469678982</v>
       </c>
       <c r="C194">
-        <v>4.404047037100425</v>
+        <v>-4.400966215383555</v>
       </c>
       <c r="D194">
-        <v>0.0001643399382732542</v>
+        <v>0.0001656747885753124</v>
       </c>
       <c r="E194">
         <v>0.04199523329015514</v>
       </c>
       <c r="F194">
-        <v>0.9187447345024173</v>
+        <v>0.9115166642328711</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>TLE3</t>
+          <t>ADIPOQ</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>-4.878500473005098</v>
+        <v>1.566639689175791</v>
       </c>
       <c r="B195">
-        <v>7.55184469678982</v>
+        <v>4.121673764638188</v>
       </c>
       <c r="C195">
-        <v>-4.400966215383555</v>
+        <v>4.398289159146644</v>
       </c>
       <c r="D195">
-        <v>0.0001656747885753124</v>
+        <v>0.0001668434489725525</v>
       </c>
       <c r="E195">
         <v>0.04199523329015514</v>
       </c>
       <c r="F195">
-        <v>0.9115166642328711</v>
+        <v>0.9052361156840547</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>ADIPOQ</t>
+          <t>CTNNB1</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>1.566639689175791</v>
+        <v>-4.728723385326834</v>
       </c>
       <c r="B196">
-        <v>4.121673764638188</v>
+        <v>4.568860636203292</v>
       </c>
       <c r="C196">
-        <v>4.398289159146644</v>
+        <v>-4.396922376458161</v>
       </c>
       <c r="D196">
-        <v>0.0001668434489725525</v>
+        <v>0.0001674432712803625</v>
       </c>
       <c r="E196">
         <v>0.04199523329015514</v>
       </c>
       <c r="F196">
-        <v>0.9052361156840547</v>
+        <v>0.9020296367972014</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>CTNNB1</t>
+          <t>MYOT</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>-4.728723385326834</v>
+        <v>-1.225078811748327</v>
       </c>
       <c r="B197">
-        <v>4.568860636203292</v>
+        <v>7.140555487509213</v>
       </c>
       <c r="C197">
-        <v>-4.396922376458161</v>
+        <v>-4.394876129660772</v>
       </c>
       <c r="D197">
-        <v>0.0001674432712803625</v>
+        <v>0.0001683452921673978</v>
       </c>
       <c r="E197">
-        <v>0.04199523329015514</v>
+        <v>0.04202867054453185</v>
       </c>
       <c r="F197">
-        <v>0.9020296367972014</v>
+        <v>0.8972292369961705</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>MYOT</t>
+          <t>FRMD3</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>-1.225078811748327</v>
+        <v>-3.507524769363595</v>
       </c>
       <c r="B198">
-        <v>7.140555487509213</v>
+        <v>5.377417848769763</v>
       </c>
       <c r="C198">
-        <v>-4.394876129660772</v>
+        <v>-4.391993120024254</v>
       </c>
       <c r="D198">
-        <v>0.0001683452921673978</v>
+        <v>0.0001696243784110871</v>
       </c>
       <c r="E198">
-        <v>0.04202867054453185</v>
+        <v>0.04212343262544445</v>
       </c>
       <c r="F198">
-        <v>0.8972292369961705</v>
+        <v>0.8904660467668721</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>FRMD3</t>
+          <t>LDB3</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>-3.507524769363595</v>
+        <v>1.671285270567783</v>
       </c>
       <c r="B199">
-        <v>5.377417848769763</v>
+        <v>7.23130750375935</v>
       </c>
       <c r="C199">
-        <v>-4.391993120024254</v>
+        <v>4.390555673495233</v>
       </c>
       <c r="D199">
-        <v>0.0001696243784110871</v>
+        <v>0.0001702657267530539</v>
       </c>
       <c r="E199">
         <v>0.04212343262544445</v>
       </c>
       <c r="F199">
-        <v>0.8904660467668721</v>
+        <v>0.8870940673781016</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>LDB3</t>
+          <t>RAB27A</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>1.671285270567783</v>
+        <v>-3.609725065596882</v>
       </c>
       <c r="B200">
-        <v>7.23130750375935</v>
+        <v>6.329258058829232</v>
       </c>
       <c r="C200">
-        <v>4.390555673495233</v>
+        <v>-4.38635639978758</v>
       </c>
       <c r="D200">
-        <v>0.0001702657267530539</v>
+        <v>0.0001721531686864099</v>
       </c>
       <c r="E200">
-        <v>0.04212343262544445</v>
+        <v>0.04239853377445702</v>
       </c>
       <c r="F200">
-        <v>0.8870940673781016</v>
+        <v>0.8772437292995514</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>RAB27A</t>
+          <t>PLN</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>-3.609725065596882</v>
+        <v>1.022879205047727</v>
       </c>
       <c r="B201">
-        <v>6.329258058829232</v>
+        <v>6.856075179159276</v>
       </c>
       <c r="C201">
-        <v>-4.38635639978758</v>
+        <v>4.378147087416046</v>
       </c>
       <c r="D201">
-        <v>0.0001721531686864099</v>
+        <v>0.0001759032886223065</v>
       </c>
       <c r="E201">
-        <v>0.04239853377445702</v>
+        <v>0.04256299684967054</v>
       </c>
       <c r="F201">
-        <v>0.8772437292995514</v>
+        <v>0.8579885678474826</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>SERTAD1</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>1.022879205047727</v>
+        <v>-2.237768145565222</v>
       </c>
       <c r="B202">
-        <v>6.856075179159276</v>
+        <v>5.214831572046121</v>
       </c>
       <c r="C202">
-        <v>4.378147087416046</v>
+        <v>-4.37785445038499</v>
       </c>
       <c r="D202">
-        <v>0.0001759032886223065</v>
+        <v>0.000176038457696663</v>
       </c>
       <c r="E202">
         <v>0.04256299684967054</v>
       </c>
       <c r="F202">
-        <v>0.8579885678474826</v>
+        <v>0.8573022202492906</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>SERTAD1</t>
+          <t>RBFOX1</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>-2.237768145565222</v>
+        <v>-1.582473088613927</v>
       </c>
       <c r="B203">
-        <v>5.214831572046121</v>
+        <v>6.024138227690529</v>
       </c>
       <c r="C203">
-        <v>-4.37785445038499</v>
+        <v>-4.376489315359088</v>
       </c>
       <c r="D203">
-        <v>0.000176038457696663</v>
+        <v>0.0001766703793352118</v>
       </c>
       <c r="E203">
         <v>0.04256299684967054</v>
       </c>
       <c r="F203">
-        <v>0.8573022202492906</v>
+        <v>0.8541004851996066</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>RBFOX1</t>
+          <t>BEND7</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>-1.582473088613927</v>
+        <v>-1.854574957163155</v>
       </c>
       <c r="B204">
-        <v>6.024138227690529</v>
+        <v>6.500643428493293</v>
       </c>
       <c r="C204">
-        <v>-4.376489315359088</v>
+        <v>-4.376396746378317</v>
       </c>
       <c r="D204">
-        <v>0.0001766703793352118</v>
+        <v>0.0001767133111088287</v>
       </c>
       <c r="E204">
         <v>0.04256299684967054</v>
       </c>
       <c r="F204">
-        <v>0.8541004851996066</v>
+        <v>0.853883379709738</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>BEND7</t>
+          <t>GKAP1</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>-1.854574957163155</v>
+        <v>-1.553516093179894</v>
       </c>
       <c r="B205">
-        <v>6.500643428493293</v>
+        <v>2.38734128299894</v>
       </c>
       <c r="C205">
-        <v>-4.376396746378317</v>
+        <v>-4.372115058108591</v>
       </c>
       <c r="D205">
-        <v>0.0001767133111088287</v>
+        <v>0.000178710453451103</v>
       </c>
       <c r="E205">
-        <v>0.04256299684967054</v>
+        <v>0.04284284510478996</v>
       </c>
       <c r="F205">
-        <v>0.853883379709738</v>
+        <v>0.8438416881039972</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>GKAP1</t>
+          <t>QKILA</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>-1.553516093179894</v>
+        <v>2.363144676918675</v>
       </c>
       <c r="B206">
-        <v>2.38734128299894</v>
+        <v>4.528050292350024</v>
       </c>
       <c r="C206">
-        <v>-4.372115058108591</v>
+        <v>4.37055779860408</v>
       </c>
       <c r="D206">
-        <v>0.000178710453451103</v>
+        <v>0.0001794423690717312</v>
       </c>
       <c r="E206">
         <v>0.04284284510478996</v>
       </c>
       <c r="F206">
-        <v>0.8438416881039972</v>
+        <v>0.8401896553777704</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>QKILA</t>
+          <t>KCNN4</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>2.363144676918675</v>
+        <v>-5.405910450922434</v>
       </c>
       <c r="B207">
-        <v>4.528050292350024</v>
+        <v>6.448214321809982</v>
       </c>
       <c r="C207">
-        <v>4.37055779860408</v>
+        <v>-4.364292417075402</v>
       </c>
       <c r="D207">
-        <v>0.0001794423690717312</v>
+        <v>0.0001824173441365956</v>
       </c>
       <c r="E207">
-        <v>0.04284284510478996</v>
+        <v>0.04317605320635656</v>
       </c>
       <c r="F207">
-        <v>0.8401896553777704</v>
+        <v>0.8254971308065411</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>KCNN4</t>
+          <t>PLIN1</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>-5.405910450922434</v>
+        <v>2.221045347085509</v>
       </c>
       <c r="B208">
-        <v>6.448214321809982</v>
+        <v>4.327806230850093</v>
       </c>
       <c r="C208">
-        <v>-4.364292417075402</v>
+        <v>4.362360913444802</v>
       </c>
       <c r="D208">
-        <v>0.0001824173441365956</v>
+        <v>0.0001833443226906161</v>
       </c>
       <c r="E208">
-        <v>0.04317605320635656</v>
+        <v>0.0432084088065062</v>
       </c>
       <c r="F208">
-        <v>0.8254971308065411</v>
+        <v>0.8209679661053322</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>PLIN1</t>
+          <t>MYO1G</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>2.221045347085509</v>
+        <v>2.240059943565918</v>
       </c>
       <c r="B209">
-        <v>4.327806230850093</v>
+        <v>6.623859895870672</v>
       </c>
       <c r="C209">
-        <v>4.362360913444802</v>
+        <v>4.360394261798864</v>
       </c>
       <c r="D209">
-        <v>0.0001833443226906161</v>
+        <v>0.000184292979821831</v>
       </c>
       <c r="E209">
-        <v>0.0432084088065062</v>
+        <v>0.0432455736985348</v>
       </c>
       <c r="F209">
-        <v>0.8209679661053322</v>
+        <v>0.8163565179815766</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>MYO1G</t>
+          <t>CALHM6</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>2.240059943565918</v>
+        <v>1.399538891106581</v>
       </c>
       <c r="B210">
-        <v>6.623859895870672</v>
+        <v>6.864294158227072</v>
       </c>
       <c r="C210">
-        <v>4.360394261798864</v>
+        <v>4.357262810797917</v>
       </c>
       <c r="D210">
-        <v>0.000184292979821831</v>
+        <v>0.0001858135805189376</v>
       </c>
       <c r="E210">
-        <v>0.0432455736985348</v>
+        <v>0.04341605775586714</v>
       </c>
       <c r="F210">
-        <v>0.8163565179815766</v>
+        <v>0.8090141061995082</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>CALHM6</t>
+          <t>SPATA18</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>1.399538891106581</v>
+        <v>1.65997599696354</v>
       </c>
       <c r="B211">
-        <v>6.864294158227072</v>
+        <v>6.049363214575278</v>
       </c>
       <c r="C211">
-        <v>4.357262810797917</v>
+        <v>4.355071573728626</v>
       </c>
       <c r="D211">
-        <v>0.0001858135805189376</v>
+        <v>0.0001868850313309678</v>
       </c>
       <c r="E211">
-        <v>0.04341605775586714</v>
+        <v>0.04348059186391772</v>
       </c>
       <c r="F211">
-        <v>0.8090141061995082</v>
+        <v>0.803876452885369</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>SPATA18</t>
+          <t>APOBEC3B</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>1.65997599696354</v>
+        <v>1.754524050385702</v>
       </c>
       <c r="B212">
-        <v>6.049363214575278</v>
+        <v>5.411742446847318</v>
       </c>
       <c r="C212">
-        <v>4.355071573728626</v>
+        <v>4.350442163311966</v>
       </c>
       <c r="D212">
-        <v>0.0001868850313309678</v>
+        <v>0.0001891689060762439</v>
       </c>
       <c r="E212">
-        <v>0.04348059186391772</v>
+        <v>0.0438254658462654</v>
       </c>
       <c r="F212">
-        <v>0.803876452885369</v>
+        <v>0.7930227448559677</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>APOBEC3B</t>
+          <t>FCRLA</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>1.754524050385702</v>
+        <v>2.422668347390219</v>
       </c>
       <c r="B213">
-        <v>5.411742446847318</v>
+        <v>7.177170732857977</v>
       </c>
       <c r="C213">
-        <v>4.350442163311966</v>
+        <v>4.34519469703813</v>
       </c>
       <c r="D213">
-        <v>0.0001891689060762439</v>
+        <v>0.0001917912415576081</v>
       </c>
       <c r="E213">
-        <v>0.0438254658462654</v>
+        <v>0.04399395692514123</v>
       </c>
       <c r="F213">
-        <v>0.7930227448559677</v>
+        <v>0.7807209556529591</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>FCRLA</t>
+          <t>TCIRG1</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>2.422668347390219</v>
+        <v>1.638990329586325</v>
       </c>
       <c r="B214">
-        <v>7.177170732857977</v>
+        <v>5.910090752377647</v>
       </c>
       <c r="C214">
-        <v>4.34519469703813</v>
+        <v>4.342524179179325</v>
       </c>
       <c r="D214">
-        <v>0.0001917912415576081</v>
+        <v>0.0001931396244591158</v>
       </c>
       <c r="E214">
         <v>0.04399395692514123</v>
       </c>
       <c r="F214">
-        <v>0.7807209556529591</v>
+        <v>0.7744607797685505</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>TCIRG1</t>
+          <t>SLC41A2</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>1.638990329586325</v>
+        <v>-3.600858088481904</v>
       </c>
       <c r="B215">
-        <v>5.910090752377647</v>
+        <v>4.221570907557869</v>
       </c>
       <c r="C215">
-        <v>4.342524179179325</v>
+        <v>-4.341033546678041</v>
       </c>
       <c r="D215">
-        <v>0.0001931396244591158</v>
+        <v>0.0001938963575491051</v>
       </c>
       <c r="E215">
         <v>0.04399395692514123</v>
       </c>
       <c r="F215">
-        <v>0.7744607797685505</v>
+        <v>0.7709665861907444</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>SLC41A2</t>
+          <t>STYXL2</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>-3.600858088481904</v>
+        <v>1.70346901965758</v>
       </c>
       <c r="B216">
-        <v>4.221570907557869</v>
+        <v>4.812239269411981</v>
       </c>
       <c r="C216">
-        <v>-4.341033546678041</v>
+        <v>4.340743501423131</v>
       </c>
       <c r="D216">
-        <v>0.0001938963575491051</v>
+        <v>0.0001940439436153514</v>
       </c>
       <c r="E216">
         <v>0.04399395692514123</v>
       </c>
       <c r="F216">
-        <v>0.7709665861907444</v>
+        <v>0.770286700620721</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>STYXL2</t>
+          <t>CBFB</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>1.70346901965758</v>
+        <v>1.442503223327005</v>
       </c>
       <c r="B217">
-        <v>4.812239269411981</v>
+        <v>9.726462908080972</v>
       </c>
       <c r="C217">
-        <v>4.340743501423131</v>
+        <v>4.339137806954147</v>
       </c>
       <c r="D217">
-        <v>0.0001940439436153514</v>
+        <v>0.0001948630033921223</v>
       </c>
       <c r="E217">
         <v>0.04399395692514123</v>
       </c>
       <c r="F217">
-        <v>0.770286700620721</v>
+        <v>0.7665229034083376</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>CBFB</t>
+          <t>NFKBIZ</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1.442503223327005</v>
+        <v>-2.137305161029518</v>
       </c>
       <c r="B218">
-        <v>9.726462908080972</v>
+        <v>7.632135089763425</v>
       </c>
       <c r="C218">
-        <v>4.339137806954147</v>
+        <v>-4.337494033506723</v>
       </c>
       <c r="D218">
-        <v>0.0001948630033921223</v>
+        <v>0.0001957050447845874</v>
       </c>
       <c r="E218">
         <v>0.04399395692514123</v>
       </c>
       <c r="F218">
-        <v>0.7665229034083376</v>
+        <v>0.7626699510832902</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>NFKBIZ</t>
+          <t>FBXO32</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>-2.137305161029518</v>
+        <v>1.209644101494862</v>
       </c>
       <c r="B219">
-        <v>7.632135089763425</v>
+        <v>5.052507967269833</v>
       </c>
       <c r="C219">
-        <v>-4.337494033506723</v>
+        <v>4.336272086237334</v>
       </c>
       <c r="D219">
-        <v>0.0001957050447845874</v>
+        <v>0.0001963333422905251</v>
       </c>
       <c r="E219">
         <v>0.04399395692514123</v>
       </c>
       <c r="F219">
-        <v>0.7626699510832902</v>
+        <v>0.7598058138497974</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>FBXO32</t>
+          <t>KDM5A</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>1.209644101494862</v>
+        <v>1.794800305297644</v>
       </c>
       <c r="B220">
-        <v>5.052507967269833</v>
+        <v>7.564265276454432</v>
       </c>
       <c r="C220">
-        <v>4.336272086237334</v>
+        <v>4.334245476019551</v>
       </c>
       <c r="D220">
-        <v>0.0001963333422905251</v>
+        <v>0.0001973797995007073</v>
       </c>
       <c r="E220">
-        <v>0.04399395692514123</v>
+        <v>0.0440479205620456</v>
       </c>
       <c r="F220">
-        <v>0.7598058138497974</v>
+        <v>0.7550557459565317</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>KDM5A</t>
+          <t>TYMS</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>1.794800305297644</v>
+        <v>1.419046249758246</v>
       </c>
       <c r="B221">
-        <v>7.564265276454432</v>
+        <v>5.279024836136527</v>
       </c>
       <c r="C221">
-        <v>4.334245476019551</v>
+        <v>4.327912479740682</v>
       </c>
       <c r="D221">
-        <v>0.0001973797995007073</v>
+        <v>0.0002006857342067017</v>
       </c>
       <c r="E221">
-        <v>0.0440479205620456</v>
+        <v>0.04460362812094071</v>
       </c>
       <c r="F221">
-        <v>0.7550557459565317</v>
+        <v>0.740213208151113</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>TYMS</t>
+          <t>MSX2</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>1.419046249758246</v>
+        <v>-2.049888962959204</v>
       </c>
       <c r="B222">
-        <v>5.279024836136527</v>
+        <v>8.014806068525306</v>
       </c>
       <c r="C222">
-        <v>4.327912479740682</v>
+        <v>-4.325776468519077</v>
       </c>
       <c r="D222">
-        <v>0.0002006857342067017</v>
+        <v>0.0002018131259638012</v>
       </c>
       <c r="E222">
-        <v>0.04460362812094071</v>
+        <v>0.04462808933258199</v>
       </c>
       <c r="F222">
-        <v>0.740213208151113</v>
+        <v>0.7352074370596338</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>MSX2</t>
+          <t>DMD</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>-2.049888962959204</v>
+        <v>1.721802129863906</v>
       </c>
       <c r="B223">
-        <v>8.014806068525306</v>
+        <v>5.39975014224649</v>
       </c>
       <c r="C223">
-        <v>-4.325776468519077</v>
+        <v>4.324450179902457</v>
       </c>
       <c r="D223">
-        <v>0.0002018131259638012</v>
+        <v>0.0002025163072476661</v>
       </c>
       <c r="E223">
         <v>0.04462808933258199</v>
       </c>
       <c r="F223">
-        <v>0.7352074370596338</v>
+        <v>0.7320993550332178</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>DMD</t>
+          <t>NCAPD2</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>1.721802129863906</v>
+        <v>-3.219063638349898</v>
       </c>
       <c r="B224">
-        <v>5.39975014224649</v>
+        <v>4.525223925049972</v>
       </c>
       <c r="C224">
-        <v>4.324450179902457</v>
+        <v>-4.321237821204615</v>
       </c>
       <c r="D224">
-        <v>0.0002025163072476661</v>
+        <v>0.0002042295590482118</v>
       </c>
       <c r="E224">
         <v>0.04462808933258199</v>
       </c>
       <c r="F224">
-        <v>0.7320993550332178</v>
+        <v>0.72457167336173</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>NCAPD2</t>
+          <t>RBFOX1</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>-3.219063638349898</v>
+        <v>1.854462551813275</v>
       </c>
       <c r="B225">
-        <v>4.525223925049972</v>
+        <v>2.580130108001257</v>
       </c>
       <c r="C225">
-        <v>-4.321237821204615</v>
+        <v>4.320095348932131</v>
       </c>
       <c r="D225">
-        <v>0.0002042295590482118</v>
+        <v>0.0002048423388574811</v>
       </c>
       <c r="E225">
         <v>0.04462808933258199</v>
       </c>
       <c r="F225">
-        <v>0.72457167336173</v>
+        <v>0.7218945631902018</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>RBFOX1</t>
+          <t>PLSCR1</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>1.854462551813275</v>
+        <v>1.27189564589505</v>
       </c>
       <c r="B226">
-        <v>2.580130108001257</v>
+        <v>7.76497446240704</v>
       </c>
       <c r="C226">
-        <v>4.320095348932131</v>
+        <v>4.318247670544482</v>
       </c>
       <c r="D226">
-        <v>0.0002048423388574811</v>
+        <v>0.0002058372315952984</v>
       </c>
       <c r="E226">
         <v>0.04462808933258199</v>
       </c>
       <c r="F226">
-        <v>0.7218945631902018</v>
+        <v>0.7175650861170988</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>PLSCR1</t>
+          <t>M6PR</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>1.27189564589505</v>
+        <v>-2.561608956699724</v>
       </c>
       <c r="B227">
-        <v>7.76497446240704</v>
+        <v>8.833294486188535</v>
       </c>
       <c r="C227">
-        <v>4.318247670544482</v>
+        <v>-4.316200155764201</v>
       </c>
       <c r="D227">
-        <v>0.0002058372315952984</v>
+        <v>0.000206945332999851</v>
       </c>
       <c r="E227">
         <v>0.04462808933258199</v>
       </c>
       <c r="F227">
-        <v>0.7175650861170988</v>
+        <v>0.712767519384041</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>M6PR</t>
+          <t>FHL1</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>-2.561608956699724</v>
+        <v>3.148967741653544</v>
       </c>
       <c r="B228">
-        <v>8.833294486188535</v>
+        <v>5.364490935447945</v>
       </c>
       <c r="C228">
-        <v>-4.316200155764201</v>
+        <v>4.315995824460086</v>
       </c>
       <c r="D228">
-        <v>0.000206945332999851</v>
+        <v>0.0002070562402832045</v>
       </c>
       <c r="E228">
         <v>0.04462808933258199</v>
       </c>
       <c r="F228">
-        <v>0.712767519384041</v>
+        <v>0.7122887568899765</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>FHL1</t>
+          <t>CLEC5A</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>3.148967741653544</v>
+        <v>-3.318005506924057</v>
       </c>
       <c r="B229">
-        <v>5.364490935447945</v>
+        <v>4.816097315800883</v>
       </c>
       <c r="C229">
-        <v>4.315995824460086</v>
+        <v>-4.307302478461613</v>
       </c>
       <c r="D229">
-        <v>0.0002070562402832045</v>
+        <v>0.0002118299005835199</v>
       </c>
       <c r="E229">
-        <v>0.04462808933258199</v>
+        <v>0.04502759757565784</v>
       </c>
       <c r="F229">
-        <v>0.7122887568899765</v>
+        <v>0.6919212867993734</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>CLEC5A</t>
+          <t>TSPAN8</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>-3.318005506924057</v>
+        <v>1.794852421470064</v>
       </c>
       <c r="B230">
-        <v>4.816097315800883</v>
+        <v>8.682007162850246</v>
       </c>
       <c r="C230">
-        <v>-4.307302478461613</v>
+        <v>4.306608016150646</v>
       </c>
       <c r="D230">
-        <v>0.0002118299005835199</v>
+        <v>0.0002122159212765832</v>
       </c>
       <c r="E230">
         <v>0.04502759757565784</v>
       </c>
       <c r="F230">
-        <v>0.6919212867993734</v>
+        <v>0.690294384951617</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>TSPAN8</t>
+          <t>SLC31A1</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>1.794852421470064</v>
+        <v>1.148474749396573</v>
       </c>
       <c r="B231">
-        <v>8.682007162850246</v>
+        <v>8.539192755405164</v>
       </c>
       <c r="C231">
-        <v>4.306608016150646</v>
+        <v>4.305335366130554</v>
       </c>
       <c r="D231">
-        <v>0.0002122159212765832</v>
+        <v>0.000212925144285331</v>
       </c>
       <c r="E231">
         <v>0.04502759757565784</v>
       </c>
       <c r="F231">
-        <v>0.690294384951617</v>
+        <v>0.687313029804999</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>SLC31A1</t>
+          <t>ATP6AP2</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>1.148474749396573</v>
+        <v>1.165356818140673</v>
       </c>
       <c r="B232">
-        <v>8.539192755405164</v>
+        <v>6.346381333986473</v>
       </c>
       <c r="C232">
-        <v>4.305335366130554</v>
+        <v>4.304665385651018</v>
       </c>
       <c r="D232">
-        <v>0.000212925144285331</v>
+        <v>0.0002132994562797509</v>
       </c>
       <c r="E232">
         <v>0.04502759757565784</v>
       </c>
       <c r="F232">
-        <v>0.687313029804999</v>
+        <v>0.6857435381817458</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>ATP6AP2</t>
+          <t>SLC29A3</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>1.165356818140673</v>
+        <v>2.580966911019807</v>
       </c>
       <c r="B233">
-        <v>6.346381333986473</v>
+        <v>7.653154126167502</v>
       </c>
       <c r="C233">
-        <v>4.304665385651018</v>
+        <v>4.299595719616101</v>
       </c>
       <c r="D233">
-        <v>0.0002132994562797509</v>
+        <v>0.0002161530859246483</v>
       </c>
       <c r="E233">
-        <v>0.04502759757565784</v>
+        <v>0.04530288278226105</v>
       </c>
       <c r="F233">
-        <v>0.6857435381817458</v>
+        <v>0.6738680149118954</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>SLC29A3</t>
+          <t>CCR5</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>2.580966911019807</v>
+        <v>1.583386384852147</v>
       </c>
       <c r="B234">
-        <v>7.653154126167502</v>
+        <v>5.880462595350038</v>
       </c>
       <c r="C234">
-        <v>4.299595719616101</v>
+        <v>4.297140436257149</v>
       </c>
       <c r="D234">
-        <v>0.0002161530859246483</v>
+        <v>0.0002175487133428123</v>
       </c>
       <c r="E234">
         <v>0.04530288278226105</v>
       </c>
       <c r="F234">
-        <v>0.6738680149118954</v>
+        <v>0.6681170066892985</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>CCR5</t>
+          <t>PLAUR</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>1.583386384852147</v>
+        <v>-2.082427564608067</v>
       </c>
       <c r="B235">
-        <v>5.880462595350038</v>
+        <v>6.657973128091411</v>
       </c>
       <c r="C235">
-        <v>4.297140436257149</v>
+        <v>-4.296693594797333</v>
       </c>
       <c r="D235">
-        <v>0.0002175487133428123</v>
+        <v>0.0002178036664560028</v>
       </c>
       <c r="E235">
         <v>0.04530288278226105</v>
       </c>
       <c r="F235">
-        <v>0.6681170066892985</v>
+        <v>0.6670703994106724</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>PLAUR</t>
+          <t>ADCY2</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>-2.082427564608067</v>
+        <v>1.68663496727919</v>
       </c>
       <c r="B236">
-        <v>6.657973128091411</v>
+        <v>3.262565597271843</v>
       </c>
       <c r="C236">
-        <v>-4.296693594797333</v>
+        <v>4.295309380524557</v>
       </c>
       <c r="D236">
-        <v>0.0002178036664560028</v>
+        <v>0.0002185953377162444</v>
       </c>
       <c r="E236">
         <v>0.04530288278226105</v>
       </c>
       <c r="F236">
-        <v>0.6670703994106724</v>
+        <v>0.6638283027935499</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>ADCY2</t>
+          <t>TRAF2</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>1.68663496727919</v>
+        <v>-1.648031518111636</v>
       </c>
       <c r="B237">
-        <v>3.262565597271843</v>
+        <v>5.82589909513436</v>
       </c>
       <c r="C237">
-        <v>4.295309380524557</v>
+        <v>-4.29434295583822</v>
       </c>
       <c r="D237">
-        <v>0.0002185953377162444</v>
+        <v>0.000219149755866604</v>
       </c>
       <c r="E237">
         <v>0.04530288278226105</v>
       </c>
       <c r="F237">
-        <v>0.6638283027935499</v>
+        <v>0.6615648013187867</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>TRAF2</t>
+          <t>COL4A5</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>-1.648031518111636</v>
+        <v>1.112762987702409</v>
       </c>
       <c r="B238">
-        <v>5.82589909513436</v>
+        <v>11.6892170771831</v>
       </c>
       <c r="C238">
-        <v>-4.29434295583822</v>
+        <v>4.293603315945076</v>
       </c>
       <c r="D238">
-        <v>0.000219149755866604</v>
+        <v>0.0002195750148568666</v>
       </c>
       <c r="E238">
         <v>0.04530288278226105</v>
       </c>
       <c r="F238">
-        <v>0.6615648013187867</v>
+        <v>0.6598324901311514</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>COL4A5</t>
+          <t>HLA-A</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>1.112762987702409</v>
+        <v>2.108885826604218</v>
       </c>
       <c r="B239">
-        <v>11.6892170771831</v>
+        <v>6.172973152317613</v>
       </c>
       <c r="C239">
-        <v>4.293603315945076</v>
+        <v>4.290824708978957</v>
       </c>
       <c r="D239">
-        <v>0.0002195750148568666</v>
+        <v>0.0002211799171845098</v>
       </c>
       <c r="E239">
-        <v>0.04530288278226105</v>
+        <v>0.0454624510227935</v>
       </c>
       <c r="F239">
-        <v>0.6598324901311514</v>
+        <v>0.6533249356375519</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>HLA-A</t>
+          <t>RGS1</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>2.108885826604218</v>
+        <v>1.585467851981289</v>
       </c>
       <c r="B240">
-        <v>6.172973152317613</v>
+        <v>5.273475693246396</v>
       </c>
       <c r="C240">
-        <v>4.290824708978957</v>
+        <v>4.287786338017345</v>
       </c>
       <c r="D240">
-        <v>0.0002211799171845098</v>
+        <v>0.0002229481854666036</v>
       </c>
       <c r="E240">
-        <v>0.0454624510227935</v>
+        <v>0.04565427730481855</v>
       </c>
       <c r="F240">
-        <v>0.6533249356375519</v>
+        <v>0.6462094148823372</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>RGS1</t>
+          <t>CCNB1</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>1.585467851981289</v>
+        <v>1.799443584065494</v>
       </c>
       <c r="B241">
-        <v>5.273475693246396</v>
+        <v>4.709989227902249</v>
       </c>
       <c r="C241">
-        <v>4.287786338017345</v>
+        <v>4.28293368677816</v>
       </c>
       <c r="D241">
-        <v>0.0002229481854666036</v>
+        <v>0.000225801467970007</v>
       </c>
       <c r="E241">
-        <v>0.04565427730481855</v>
+        <v>0.04568122199664617</v>
       </c>
       <c r="F241">
-        <v>0.6462094148823372</v>
+        <v>0.6348459459985749</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>CCNB1</t>
+          <t>DEPDC1</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>1.799443584065494</v>
+        <v>-2.272389191991281</v>
       </c>
       <c r="B242">
-        <v>4.709989227902249</v>
+        <v>3.758160546352213</v>
       </c>
       <c r="C242">
-        <v>4.28293368677816</v>
+        <v>-4.282229367909402</v>
       </c>
       <c r="D242">
-        <v>0.000225801467970007</v>
+        <v>0.0002262185968225127</v>
       </c>
       <c r="E242">
         <v>0.04568122199664617</v>
       </c>
       <c r="F242">
-        <v>0.6348459459985749</v>
+        <v>0.6331967321752101</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>DEPDC1</t>
+          <t>TMEFF2</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>-2.272389191991281</v>
+        <v>-1.96718840918731</v>
       </c>
       <c r="B243">
-        <v>3.758160546352213</v>
+        <v>6.235898074402254</v>
       </c>
       <c r="C243">
-        <v>-4.282229367909402</v>
+        <v>-4.279500528978351</v>
       </c>
       <c r="D243">
-        <v>0.0002262185968225127</v>
+        <v>0.0002278419692365105</v>
       </c>
       <c r="E243">
         <v>0.04568122199664617</v>
       </c>
       <c r="F243">
-        <v>0.6331967321752101</v>
+        <v>0.6268071794948726</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>TMEFF2</t>
+          <t>VLDLR</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>-1.96718840918731</v>
+        <v>-2.617056526217786</v>
       </c>
       <c r="B244">
-        <v>6.235898074402254</v>
+        <v>4.490257712954518</v>
       </c>
       <c r="C244">
-        <v>-4.279500528978351</v>
+        <v>-4.278351156640174</v>
       </c>
       <c r="D244">
-        <v>0.0002278419692365105</v>
+        <v>0.0002285291799404422</v>
       </c>
       <c r="E244">
         <v>0.04568122199664617</v>
       </c>
       <c r="F244">
-        <v>0.6268071794948726</v>
+        <v>0.624116040298464</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>VLDLR</t>
+          <t>SCN7A</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>-2.617056526217786</v>
+        <v>1.920720308054363</v>
       </c>
       <c r="B245">
-        <v>4.490257712954518</v>
+        <v>3.072038156668913</v>
       </c>
       <c r="C245">
-        <v>-4.278351156640174</v>
+        <v>4.27570763913399</v>
       </c>
       <c r="D245">
-        <v>0.0002285291799404422</v>
+        <v>0.0002301175561191983</v>
       </c>
       <c r="E245">
         <v>0.04568122199664617</v>
       </c>
       <c r="F245">
-        <v>0.624116040298464</v>
+        <v>0.617926751640713</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>SCN7A</t>
+          <t>KATNB1</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>1.920720308054363</v>
+        <v>-3.620834221139362</v>
       </c>
       <c r="B246">
-        <v>3.072038156668913</v>
+        <v>7.607975191596054</v>
       </c>
       <c r="C246">
-        <v>4.27570763913399</v>
+        <v>-4.275329608427031</v>
       </c>
       <c r="D246">
-        <v>0.0002301175561191983</v>
+        <v>0.0002303455919860436</v>
       </c>
       <c r="E246">
         <v>0.04568122199664617</v>
       </c>
       <c r="F246">
-        <v>0.617926751640713</v>
+        <v>0.6170416928448503</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>KATNB1</t>
+          <t>SLN</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>-3.620834221139362</v>
+        <v>1.516196582978149</v>
       </c>
       <c r="B247">
-        <v>7.607975191596054</v>
+        <v>8.975793136751628</v>
       </c>
       <c r="C247">
-        <v>-4.275329608427031</v>
+        <v>4.274244468397701</v>
       </c>
       <c r="D247">
-        <v>0.0002303455919860436</v>
+        <v>0.0002310014169548024</v>
       </c>
       <c r="E247">
         <v>0.04568122199664617</v>
       </c>
       <c r="F247">
-        <v>0.6170416928448503</v>
+        <v>0.6145011632368726</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>SLN</t>
+          <t>PAPSS2</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1.516196582978149</v>
+        <v>-3.942512444506066</v>
       </c>
       <c r="B248">
-        <v>8.975793136751628</v>
+        <v>8.083268869143275</v>
       </c>
       <c r="C248">
-        <v>4.274244468397701</v>
+        <v>-4.273529036716427</v>
       </c>
       <c r="D248">
-        <v>0.0002310014169548024</v>
+        <v>0.0002314348146880839</v>
       </c>
       <c r="E248">
         <v>0.04568122199664617</v>
       </c>
       <c r="F248">
-        <v>0.6145011632368726</v>
+        <v>0.6128262259792727</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>PAPSS2</t>
+          <t>PLN</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>-3.942512444506066</v>
+        <v>1.199401506388889</v>
       </c>
       <c r="B249">
-        <v>8.083268869143275</v>
+        <v>5.552061430762125</v>
       </c>
       <c r="C249">
-        <v>-4.273529036716427</v>
+        <v>4.27070105172997</v>
       </c>
       <c r="D249">
-        <v>0.0002314348146880839</v>
+        <v>0.0002331558768049725</v>
       </c>
       <c r="E249">
-        <v>0.04568122199664617</v>
+        <v>0.04571052600310817</v>
       </c>
       <c r="F249">
-        <v>0.6128262259792727</v>
+        <v>0.6062057158693221</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>SRD5A1</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>1.199401506388889</v>
+        <v>2.870726613224279</v>
       </c>
       <c r="B250">
-        <v>5.552061430762125</v>
+        <v>7.324702650626433</v>
       </c>
       <c r="C250">
-        <v>4.27070105172997</v>
+        <v>4.270538220034856</v>
       </c>
       <c r="D250">
-        <v>0.0002331558768049725</v>
+        <v>0.0002332553590282063</v>
       </c>
       <c r="E250">
         <v>0.04571052600310817</v>
       </c>
       <c r="F250">
-        <v>0.6062057158693221</v>
+        <v>0.6058245274299514</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>SRD5A1</t>
+          <t>FN1</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>2.870726613224279</v>
+        <v>1.915914409384254</v>
       </c>
       <c r="B251">
-        <v>7.324702650626433</v>
+        <v>5.238507881110587</v>
       </c>
       <c r="C251">
-        <v>4.270538220034856</v>
+        <v>4.265118284293802</v>
       </c>
       <c r="D251">
-        <v>0.0002332553590282063</v>
+        <v>0.000236590812714678</v>
       </c>
       <c r="E251">
-        <v>0.04571052600310817</v>
+        <v>0.04593268285778679</v>
       </c>
       <c r="F251">
-        <v>0.6058245274299514</v>
+        <v>0.5931372234580676</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>FN1</t>
+          <t>MCTP2</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>1.915914409384254</v>
+        <v>-1.72525962083066</v>
       </c>
       <c r="B252">
-        <v>5.238507881110587</v>
+        <v>3.099900589611648</v>
       </c>
       <c r="C252">
-        <v>4.265118284293802</v>
+        <v>-4.264874531864798</v>
       </c>
       <c r="D252">
-        <v>0.000236590812714678</v>
+        <v>0.0002367419258495937</v>
       </c>
       <c r="E252">
         <v>0.04593268285778679</v>
       </c>
       <c r="F252">
-        <v>0.5931372234580676</v>
+        <v>0.5925666677434824</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>MCTP2</t>
+          <t>CTNNA3</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>-1.72525962083066</v>
+        <v>2.050249619114678</v>
       </c>
       <c r="B253">
-        <v>3.099900589611648</v>
+        <v>6.299219960710055</v>
       </c>
       <c r="C253">
-        <v>-4.264874531864798</v>
+        <v>4.264577578191313</v>
       </c>
       <c r="D253">
-        <v>0.0002367419258495937</v>
+        <v>0.0002369261502151051</v>
       </c>
       <c r="E253">
         <v>0.04593268285778679</v>
       </c>
       <c r="F253">
-        <v>0.5925666677434824</v>
+        <v>0.5918715869277031</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>CTNNA3</t>
+          <t>IL1RN</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>2.050249619114678</v>
+        <v>-4.588482498732258</v>
       </c>
       <c r="B254">
-        <v>6.299219960710055</v>
+        <v>3.50407638665877</v>
       </c>
       <c r="C254">
-        <v>4.264577578191313</v>
+        <v>-4.263123652856845</v>
       </c>
       <c r="D254">
-        <v>0.0002369261502151051</v>
+        <v>0.000237830192302026</v>
       </c>
       <c r="E254">
         <v>0.04593268285778679</v>
       </c>
       <c r="F254">
-        <v>0.5918715869277031</v>
+        <v>0.5884684410314929</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>IL1RN</t>
+          <t>LMOD2</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>-4.588482498732258</v>
+        <v>1.392671190198452</v>
       </c>
       <c r="B255">
-        <v>3.50407638665877</v>
+        <v>4.534314699913697</v>
       </c>
       <c r="C255">
-        <v>-4.263123652856845</v>
+        <v>4.260808450738421</v>
       </c>
       <c r="D255">
-        <v>0.000237830192302026</v>
+        <v>0.0002392768389281813</v>
       </c>
       <c r="E255">
         <v>0.04593268285778679</v>
       </c>
       <c r="F255">
-        <v>0.5884684410314929</v>
+        <v>0.5830495578813224</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>LMOD2</t>
+          <t>STK17B</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>1.392671190198452</v>
+        <v>1.841144448311092</v>
       </c>
       <c r="B256">
-        <v>4.534314699913697</v>
+        <v>5.776164900102967</v>
       </c>
       <c r="C256">
-        <v>4.260808450738421</v>
+        <v>4.258568555011393</v>
       </c>
       <c r="D256">
-        <v>0.0002392768389281813</v>
+        <v>0.0002406847368255952</v>
       </c>
       <c r="E256">
         <v>0.04593268285778679</v>
       </c>
       <c r="F256">
-        <v>0.5830495578813224</v>
+        <v>0.5778071925047508</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>STK17B</t>
+          <t>IKZF1</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>1.841144448311092</v>
+        <v>-2.909851995507859</v>
       </c>
       <c r="B257">
-        <v>5.776164900102967</v>
+        <v>2.778027529492102</v>
       </c>
       <c r="C257">
-        <v>4.258568555011393</v>
+        <v>-4.258304696817374</v>
       </c>
       <c r="D257">
-        <v>0.0002406847368255952</v>
+        <v>0.0002408511262781174</v>
       </c>
       <c r="E257">
         <v>0.04593268285778679</v>
       </c>
       <c r="F257">
-        <v>0.5778071925047508</v>
+        <v>0.577189662228256</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>IKZF1</t>
+          <t>NOS1</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>-2.909851995507859</v>
+        <v>1.414871579536988</v>
       </c>
       <c r="B258">
-        <v>2.778027529492102</v>
+        <v>5.712065430253197</v>
       </c>
       <c r="C258">
-        <v>-4.258304696817374</v>
+        <v>4.25607700402179</v>
       </c>
       <c r="D258">
-        <v>0.0002408511262781174</v>
+        <v>0.0002422604688877119</v>
       </c>
       <c r="E258">
         <v>0.04593268285778679</v>
       </c>
       <c r="F258">
-        <v>0.577189662228256</v>
+        <v>0.5719761409005946</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>NOS1</t>
+          <t>HELLS</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>1.414871579536988</v>
+        <v>1.616063552094591</v>
       </c>
       <c r="B259">
-        <v>5.712065430253197</v>
+        <v>10.33478292869277</v>
       </c>
       <c r="C259">
-        <v>4.25607700402179</v>
+        <v>4.254039339301807</v>
       </c>
       <c r="D259">
-        <v>0.0002422604688877119</v>
+        <v>0.0002435567519218148</v>
       </c>
       <c r="E259">
         <v>0.04593268285778679</v>
       </c>
       <c r="F259">
-        <v>0.5719761409005946</v>
+        <v>0.5672075698384731</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>HELLS</t>
+          <t>PRDX4</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>1.616063552094591</v>
+        <v>1.478901583632214</v>
       </c>
       <c r="B260">
-        <v>10.33478292869277</v>
+        <v>6.624094112579275</v>
       </c>
       <c r="C260">
-        <v>4.254039339301807</v>
+        <v>4.253343051978523</v>
       </c>
       <c r="D260">
-        <v>0.0002435567519218148</v>
+        <v>0.0002440012779201309</v>
       </c>
       <c r="E260">
         <v>0.04593268285778679</v>
       </c>
       <c r="F260">
-        <v>0.5672075698384731</v>
+        <v>0.5655781577659988</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>PRDX4</t>
+          <t>DOK3</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>1.478901583632214</v>
+        <v>1.338700271233357</v>
       </c>
       <c r="B261">
-        <v>6.624094112579275</v>
+        <v>9.558818687329261</v>
       </c>
       <c r="C261">
-        <v>4.253343051978523</v>
+        <v>4.251772711490127</v>
       </c>
       <c r="D261">
-        <v>0.0002440012779201309</v>
+        <v>0.0002450067756731142</v>
       </c>
       <c r="E261">
         <v>0.04593268285778679</v>
       </c>
       <c r="F261">
-        <v>0.5655781577659988</v>
+        <v>0.5619034283289448</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>DOK3</t>
+          <t>KDELR2</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>1.338700271233357</v>
+        <v>1.454628706300271</v>
       </c>
       <c r="B262">
-        <v>9.558818687329261</v>
+        <v>6.281636089375311</v>
       </c>
       <c r="C262">
-        <v>4.251772711490127</v>
+        <v>4.250414679779063</v>
       </c>
       <c r="D262">
-        <v>0.0002450067756731142</v>
+        <v>0.0002458796437350435</v>
       </c>
       <c r="E262">
         <v>0.04593268285778679</v>
       </c>
       <c r="F262">
-        <v>0.5619034283289448</v>
+        <v>0.5587256228064419</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>KDELR2</t>
+          <t>MR1</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>1.454628706300271</v>
+        <v>2.349910172183682</v>
       </c>
       <c r="B263">
-        <v>6.281636089375311</v>
+        <v>7.130526220147773</v>
       </c>
       <c r="C263">
-        <v>4.250414679779063</v>
+        <v>4.250099067733149</v>
       </c>
       <c r="D263">
-        <v>0.0002458796437350435</v>
+        <v>0.0002460829430331504</v>
       </c>
       <c r="E263">
         <v>0.04593268285778679</v>
       </c>
       <c r="F263">
-        <v>0.5587256228064419</v>
+        <v>0.557987101772123</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>MR1</t>
+          <t>KCNJ15</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>2.349910172183682</v>
+        <v>1.313668317556592</v>
       </c>
       <c r="B264">
-        <v>7.130526220147773</v>
+        <v>5.604580632873962</v>
       </c>
       <c r="C264">
-        <v>4.250099067733149</v>
+        <v>4.249994317366435</v>
       </c>
       <c r="D264">
-        <v>0.0002460829430331504</v>
+        <v>0.0002461504540892827</v>
       </c>
       <c r="E264">
         <v>0.04593268285778679</v>
       </c>
       <c r="F264">
-        <v>0.557987101772123</v>
+        <v>0.5577419907667469</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>KCNJ15</t>
+          <t>RABEP2</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>1.313668317556592</v>
+        <v>1.549325980524133</v>
       </c>
       <c r="B265">
-        <v>5.604580632873962</v>
+        <v>9.807496206528166</v>
       </c>
       <c r="C265">
-        <v>4.249994317366435</v>
+        <v>4.245159151025653</v>
       </c>
       <c r="D265">
-        <v>0.0002461504540892827</v>
+        <v>0.0002492867653070287</v>
       </c>
       <c r="E265">
-        <v>0.04593268285778679</v>
+        <v>0.04635970711959794</v>
       </c>
       <c r="F265">
-        <v>0.5577419907667469</v>
+        <v>0.5464285531932802</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>RABEP2</t>
+          <t>CTSB</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>1.549325980524133</v>
+        <v>1.884531755027426</v>
       </c>
       <c r="B266">
-        <v>9.807496206528166</v>
+        <v>4.836042989369306</v>
       </c>
       <c r="C266">
-        <v>4.245159151025653</v>
+        <v>4.243087292448225</v>
       </c>
       <c r="D266">
-        <v>0.0002492867653070287</v>
+        <v>0.0002506427658984941</v>
       </c>
       <c r="E266">
-        <v>0.04635970711959794</v>
+        <v>0.04645387534067852</v>
       </c>
       <c r="F266">
-        <v>0.5464285531932802</v>
+        <v>0.5415811477392714</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>CTSB</t>
+          <t>GOLGA2</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>1.884531755027426</v>
+        <v>1.539025979517293</v>
       </c>
       <c r="B267">
-        <v>4.836042989369306</v>
+        <v>7.117480546047286</v>
       </c>
       <c r="C267">
-        <v>4.243087292448225</v>
+        <v>4.240675066005763</v>
       </c>
       <c r="D267">
-        <v>0.0002506427658984941</v>
+        <v>0.0002522307492731854</v>
       </c>
       <c r="E267">
-        <v>0.04645387534067852</v>
+        <v>0.04659025748821424</v>
       </c>
       <c r="F267">
-        <v>0.5415811477392714</v>
+        <v>0.5359376925160282</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>GOLGA2</t>
+          <t>CHST11</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>1.539025979517293</v>
+        <v>2.120635476810834</v>
       </c>
       <c r="B268">
-        <v>7.117480546047286</v>
+        <v>5.261252945484644</v>
       </c>
       <c r="C268">
-        <v>4.240675066005763</v>
+        <v>4.237640544087724</v>
       </c>
       <c r="D268">
-        <v>0.0002522307492731854</v>
+        <v>0.0002542425681134335</v>
       </c>
       <c r="E268">
-        <v>0.04659025748821424</v>
+        <v>0.04662811976447974</v>
       </c>
       <c r="F268">
-        <v>0.5359376925160282</v>
+        <v>0.5288388084250482</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>CHST11</t>
+          <t>AKNA</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>2.120635476810834</v>
+        <v>1.472482631966697</v>
       </c>
       <c r="B269">
-        <v>5.261252945484644</v>
+        <v>7.543488246704173</v>
       </c>
       <c r="C269">
-        <v>4.237640544087724</v>
+        <v>4.236820839853991</v>
       </c>
       <c r="D269">
-        <v>0.0002542425681134335</v>
+        <v>0.0002547887372359895</v>
       </c>
       <c r="E269">
         <v>0.04662811976447974</v>
       </c>
       <c r="F269">
-        <v>0.5288388084250482</v>
+        <v>0.5269212985192535</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>AKNA</t>
+          <t>DOCK8</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>1.472482631966697</v>
+        <v>-3.406575165560216</v>
       </c>
       <c r="B270">
-        <v>7.543488246704173</v>
+        <v>4.339020617494951</v>
       </c>
       <c r="C270">
-        <v>4.236820839853991</v>
+        <v>-4.236512929155984</v>
       </c>
       <c r="D270">
-        <v>0.0002547887372359895</v>
+        <v>0.0002549941986205659</v>
       </c>
       <c r="E270">
         <v>0.04662811976447974</v>
       </c>
       <c r="F270">
-        <v>0.5269212985192535</v>
+        <v>0.5262010215532138</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>DOCK8</t>
+          <t>ART3</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>-3.406575165560216</v>
+        <v>1.588400200877233</v>
       </c>
       <c r="B271">
-        <v>4.339020617494951</v>
+        <v>5.543487578235794</v>
       </c>
       <c r="C271">
-        <v>-4.236512929155984</v>
+        <v>4.225003141941007</v>
       </c>
       <c r="D271">
-        <v>0.0002549941986205659</v>
+        <v>0.000262793366250198</v>
       </c>
       <c r="E271">
-        <v>0.04662811976447974</v>
+        <v>0.04755785478526076</v>
       </c>
       <c r="F271">
-        <v>0.5262010215532138</v>
+        <v>0.4992806110161156</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>ART3</t>
+          <t>NIN</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>1.588400200877233</v>
+        <v>1.558612221367278</v>
       </c>
       <c r="B272">
-        <v>5.543487578235794</v>
+        <v>7.340595593667265</v>
       </c>
       <c r="C272">
-        <v>4.225003141941007</v>
+        <v>4.224384672566071</v>
       </c>
       <c r="D272">
-        <v>0.000262793366250198</v>
+        <v>0.0002632190786063131</v>
       </c>
       <c r="E272">
         <v>0.04755785478526076</v>
       </c>
       <c r="F272">
-        <v>0.4992806110161156</v>
+        <v>0.4978342727253313</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>NIN</t>
+          <t>SCO2</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>1.558612221367278</v>
+        <v>1.264389840976092</v>
       </c>
       <c r="B273">
-        <v>7.340595593667265</v>
+        <v>11.30149795386755</v>
       </c>
       <c r="C273">
-        <v>4.224384672566071</v>
+        <v>4.223893097221325</v>
       </c>
       <c r="D273">
-        <v>0.0002632190786063131</v>
+        <v>0.0002635579332406769</v>
       </c>
       <c r="E273">
         <v>0.04755785478526076</v>
       </c>
       <c r="F273">
-        <v>0.4978342727253313</v>
+        <v>0.4966847012755942</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>SCO2</t>
+          <t>PGAM1</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>1.264389840976092</v>
+        <v>-1.767840651814668</v>
       </c>
       <c r="B274">
-        <v>11.30149795386755</v>
+        <v>3.096734489373681</v>
       </c>
       <c r="C274">
-        <v>4.223893097221325</v>
+        <v>-4.221864888038692</v>
       </c>
       <c r="D274">
-        <v>0.0002635579332406769</v>
+        <v>0.0002649606045254238</v>
       </c>
       <c r="E274">
-        <v>0.04755785478526076</v>
+        <v>0.04765368767245903</v>
       </c>
       <c r="F274">
-        <v>0.4966847012755942</v>
+        <v>0.4919417856523607</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>PGAM1</t>
+          <t>ATP2B3</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>-1.767840651814668</v>
+        <v>2.486370897225942</v>
       </c>
       <c r="B275">
-        <v>3.096734489373681</v>
+        <v>6.391975514208504</v>
       </c>
       <c r="C275">
-        <v>-4.221864888038692</v>
+        <v>4.219387933227336</v>
       </c>
       <c r="D275">
-        <v>0.0002649606045254238</v>
+        <v>0.0002666836589393694</v>
       </c>
       <c r="E275">
-        <v>0.04765368767245903</v>
+        <v>0.04780632476232793</v>
       </c>
       <c r="F275">
-        <v>0.4919417856523607</v>
+        <v>0.4861498065768233</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>ATP2B3</t>
+          <t>PTX3</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>2.486370897225942</v>
+        <v>1.652616604541979</v>
       </c>
       <c r="B276">
-        <v>6.391975514208504</v>
+        <v>3.165557773283218</v>
       </c>
       <c r="C276">
-        <v>4.219387933227336</v>
+        <v>4.217498495307067</v>
       </c>
       <c r="D276">
-        <v>0.0002666836589393694</v>
+        <v>0.0002680054789917585</v>
       </c>
       <c r="E276">
-        <v>0.04780632476232793</v>
+        <v>0.04788627308455684</v>
       </c>
       <c r="F276">
-        <v>0.4861498065768233</v>
+        <v>0.4817318812864739</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>PTX3</t>
+          <t>RNH1</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>1.652616604541979</v>
+        <v>1.637843448038012</v>
       </c>
       <c r="B277">
-        <v>3.165557773283218</v>
+        <v>3.87308516435977</v>
       </c>
       <c r="C277">
-        <v>4.217498495307067</v>
+        <v>4.215899068412266</v>
       </c>
       <c r="D277">
-        <v>0.0002680054789917585</v>
+        <v>0.0002691294851905832</v>
       </c>
       <c r="E277">
-        <v>0.04788627308455684</v>
+        <v>0.04790652162236938</v>
       </c>
       <c r="F277">
-        <v>0.4817318812864739</v>
+        <v>0.4779922263995635</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>RNH1</t>
+          <t>TROAP</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1.637843448038012</v>
+        <v>-4.065335270956012</v>
       </c>
       <c r="B278">
-        <v>3.87308516435977</v>
+        <v>3.600260239630338</v>
       </c>
       <c r="C278">
-        <v>4.215899068412266</v>
+        <v>-4.214847231421604</v>
       </c>
       <c r="D278">
-        <v>0.0002691294851905832</v>
+        <v>0.0002698712146262418</v>
       </c>
       <c r="E278">
         <v>0.04790652162236938</v>
       </c>
       <c r="F278">
-        <v>0.4779922263995635</v>
+        <v>0.4755329838239026</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>TROAP</t>
+          <t>MIR133A1HG</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>-4.065335270956012</v>
+        <v>1.568546255209577</v>
       </c>
       <c r="B279">
-        <v>3.600260239630338</v>
+        <v>6.207775558122962</v>
       </c>
       <c r="C279">
-        <v>-4.214847231421604</v>
+        <v>4.211039054548631</v>
       </c>
       <c r="D279">
-        <v>0.0002698712146262418</v>
+        <v>0.0002725736309433824</v>
       </c>
       <c r="E279">
-        <v>0.04790652162236938</v>
+        <v>0.04809966502642901</v>
       </c>
       <c r="F279">
-        <v>0.4755329838239026</v>
+        <v>0.4666298305347709</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>MIR133A1HG</t>
+          <t>GMPPA</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>1.568546255209577</v>
+        <v>1.17497228843681</v>
       </c>
       <c r="B280">
-        <v>6.207775558122962</v>
+        <v>6.688076887879721</v>
       </c>
       <c r="C280">
-        <v>4.211039054548631</v>
+        <v>4.209560175659295</v>
       </c>
       <c r="D280">
-        <v>0.0002725736309433824</v>
+        <v>0.0002736303094266301</v>
       </c>
       <c r="E280">
         <v>0.04809966502642901</v>
       </c>
       <c r="F280">
-        <v>0.4666298305347709</v>
+        <v>0.46317258128696</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>GMPPA</t>
+          <t>PRKACB</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>1.17497228843681</v>
+        <v>1.652361317392833</v>
       </c>
       <c r="B281">
-        <v>6.688076887879721</v>
+        <v>5.617113061260932</v>
       </c>
       <c r="C281">
-        <v>4.209560175659295</v>
+        <v>4.208366070951019</v>
       </c>
       <c r="D281">
-        <v>0.0002736303094266301</v>
+        <v>0.0002744864741270124</v>
       </c>
       <c r="E281">
         <v>0.04809966502642901</v>
       </c>
       <c r="F281">
-        <v>0.46317258128696</v>
+        <v>0.4603811565895848</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>PRKACB</t>
+          <t>TRIM9</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>1.652361317392833</v>
+        <v>2.483074556419442</v>
       </c>
       <c r="B282">
-        <v>5.617113061260932</v>
+        <v>4.602376684130478</v>
       </c>
       <c r="C282">
-        <v>4.208366070951019</v>
+        <v>4.207712168978542</v>
       </c>
       <c r="D282">
-        <v>0.0002744864741270124</v>
+        <v>0.0002749564415016589</v>
       </c>
       <c r="E282">
         <v>0.04809966502642901</v>
       </c>
       <c r="F282">
-        <v>0.4603811565895848</v>
+        <v>0.4588525840771291</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>TRIM9</t>
+          <t>KIF20A</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>2.483074556419442</v>
+        <v>1.657426554052208</v>
       </c>
       <c r="B283">
-        <v>4.602376684130478</v>
+        <v>5.082871577620656</v>
       </c>
       <c r="C283">
-        <v>4.207712168978542</v>
+        <v>4.206284067257093</v>
       </c>
       <c r="D283">
-        <v>0.0002749564415016589</v>
+        <v>0.0002759856096641733</v>
       </c>
       <c r="E283">
         <v>0.04809966502642901</v>
       </c>
       <c r="F283">
-        <v>0.4588525840771291</v>
+        <v>0.4555143166934164</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>KIF20A</t>
+          <t>TRIM59</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>1.657426554052208</v>
+        <v>-3.244402898330586</v>
       </c>
       <c r="B284">
-        <v>5.082871577620656</v>
+        <v>6.563349388369072</v>
       </c>
       <c r="C284">
-        <v>4.206284067257093</v>
+        <v>-4.205935100599207</v>
       </c>
       <c r="D284">
-        <v>0.0002759856096641733</v>
+        <v>0.0002762376738600587</v>
       </c>
       <c r="E284">
         <v>0.04809966502642901</v>
       </c>
       <c r="F284">
-        <v>0.4555143166934164</v>
+        <v>0.4546986060289502</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>TRIM59</t>
+          <t>CMYA5</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>-3.244402898330586</v>
+        <v>-5.288602764400769</v>
       </c>
       <c r="B285">
-        <v>6.563349388369072</v>
+        <v>3.709157589778648</v>
       </c>
       <c r="C285">
-        <v>-4.205935100599207</v>
+        <v>-4.200937632792225</v>
       </c>
       <c r="D285">
-        <v>0.0002762376738600587</v>
+        <v>0.0002798725473839987</v>
       </c>
       <c r="E285">
-        <v>0.04809966502642901</v>
+        <v>0.0484704573690345</v>
       </c>
       <c r="F285">
-        <v>0.4546986060289502</v>
+        <v>0.4430178047713635</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>CMYA5</t>
+          <t>XIRP2</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>-5.288602764400769</v>
+        <v>1.059009969810305</v>
       </c>
       <c r="B286">
-        <v>3.709157589778648</v>
+        <v>8.063408772635634</v>
       </c>
       <c r="C286">
-        <v>-4.200937632792225</v>
+        <v>4.190648472026607</v>
       </c>
       <c r="D286">
-        <v>0.0002798725473839987</v>
+        <v>0.0002875061686438425</v>
       </c>
       <c r="E286">
-        <v>0.0484704573690345</v>
+        <v>0.04958801189464381</v>
       </c>
       <c r="F286">
-        <v>0.4430178047713635</v>
+        <v>0.4189732458121558</v>
       </c>
       <c r="G286" t="inlineStr">
-        <is>
-          <t>XIRP2</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287">
-        <v>1.059009969810305</v>
-      </c>
-      <c r="B287">
-        <v>8.063408772635634</v>
-      </c>
-      <c r="C287">
-        <v>4.190648472026607</v>
-      </c>
-      <c r="D287">
-        <v>0.0002875061686438425</v>
-      </c>
-      <c r="E287">
-        <v>0.04958801189464381</v>
-      </c>
-      <c r="F287">
-        <v>0.4189732458121558</v>
-      </c>
-      <c r="G287" t="inlineStr">
         <is>
           <t>LMO4</t>
         </is>
